--- a/biology/Médecine/Fédération_internationale_des_étudiants_en_pharmacie/Fédération_internationale_des_étudiants_en_pharmacie.xlsx
+++ b/biology/Médecine/Fédération_internationale_des_étudiants_en_pharmacie/Fédération_internationale_des_étudiants_en_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Fédération_internationale_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fédération internationale des étudiants en pharmacie ou IPSF (International Pharmaceutical Students' Federation) est une organisation non gouvernementale, apolitique et non religieuse qui représente les étudiants en pharmacie, et les pharmaciens nouvellement diplômés du monde entier.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Fédération_internationale_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération internationale des étudiants en pharmacie est une organisation internationale qui se donne pour mission de défendre les intérêts des étudiants en pharmacie et de promouvoir la santé publique grâce à l'information, à l'éducation, à l’établissement d’un réseau mondial ainsi que par le biais d’un large panel de publications et de projets professionnels. Crée à Londres en 1949, elle est l'une des plus anciennes organisations internationales d'étudiants bénévoles au monde. Aujourd'hui, la Fédération représente plus de 350 000 étudiants en pharmacie et jeunes diplômés dans plus de 80 pays à travers le monde.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Fédération_internationale_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Bureaux régionaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Bureau régional est une extension fonctionnelle de l'IPSF spécifique d'une région du monde, structuré par des  étudiants en pharmacie élus formant des groupes de travail Régionaux. Sa mission est de faire progresser et de soutenir les buts et les objectifs de la Fédération au niveau régional :
 Bureau Régional pour l'Afrique (AfRO) – Créé en 2008
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Fédération_internationale_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Liste des congrès mondiaux de l'IPSF</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1948 - réunion Préparatoire, Londres, Grande-Bretagne
 1949 - 1er de la Conférence, Londres, Grande-Bretagne
@@ -665,7 +683,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Fédération_internationale_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -683,7 +701,9 @@
           <t>Comité exécutif et les sous comités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bureau exécutif est composé de dix membres élus : Président, Secrétaire Général, Trésorier, Président de la Santé Publique, Président des Médias et des Publications, Président de l'Éducation Pharmaceutique, Président du Développement Professionnel, Président des Relations Internes, Président des Relations Externes et du Président de l'Échange d'Étudiants. L'Exécutif comprend également des membres cooptés tels que le Président du Congrès International, les Présidents des Bureaux Régionaux ainsi que le Président-Élu. Les membres du Comité exécutif servent la Fédération en tant que bénévoles avec un membre de l'Exécutif désigné comme fonctionnaire Permanent pour travailler à plein temps au Siège de l'IPSF à La Haye, aux Pays-Bas.
 </t>
